--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N2">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q2">
-        <v>505.651676092682</v>
+        <v>0.1060947250214444</v>
       </c>
       <c r="R2">
-        <v>4550.865084834139</v>
+        <v>0.9548525251929999</v>
       </c>
       <c r="S2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="T2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q3">
-        <v>579.4504408496647</v>
+        <v>0.1724157884225556</v>
       </c>
       <c r="R3">
-        <v>5215.053967646983</v>
+        <v>1.551742095803</v>
       </c>
       <c r="S3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="T3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N4">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q4">
-        <v>189.147435527096</v>
+        <v>0.08423140232011112</v>
       </c>
       <c r="R4">
-        <v>1702.326919743864</v>
+        <v>0.758082620881</v>
       </c>
       <c r="S4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="T4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
     </row>
   </sheetData>
